--- a/tests/test_cases.xlsx
+++ b/tests/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\peleke\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tprid\OneDrive\Desktop\Internship_BetterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E7FC38-D3E8-42E8-A6EA-CADB401272C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12382831-4707-412F-94DA-ED635BF9BEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_cases" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
   <si>
     <t>pdb_id</t>
   </si>
@@ -154,13 +154,175 @@
   </si>
   <si>
     <t>DIQMTQSPSSLSASVGDRVTITCRASQSISTHLNWYQQKPGKAPKLLIYAASSLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQSYSTPWTFGQGTKVEIKRTVAAPSVFIFPPSDEQLKSGTASVVCLLNNFYPREAKVQWKVDNALQSGNSQESVTEQDSKDSTYSLSSTLTLSKADYEKHKVYACEVTHQGLSSPVTKSFNRGE</t>
+  </si>
+  <si>
+    <t>ma-1dqrd</t>
+  </si>
+  <si>
+    <t>PD-L1</t>
+  </si>
+  <si>
+    <t>https://www.modelarchive.org/doi/10.5452/ma-c7d6n</t>
+  </si>
+  <si>
+    <t>https://www.modelarchive.org/doi/10.5452/ma-cjnxd</t>
+  </si>
+  <si>
+    <t>https://www.modelarchive.org/doi/10.5452/ma-cdl3l</t>
+  </si>
+  <si>
+    <t>https://www.modelarchive.org/doi/10.5452/ma-cru5u</t>
+  </si>
+  <si>
+    <t>https://www.modelarchive.org/doi/10.5452/ma-ci9yk</t>
+  </si>
+  <si>
+    <t>https://www.modelarchive.org/doi/10.5452/ma-c8s4s</t>
+  </si>
+  <si>
+    <t>https://www.modelarchive.org/doi/10.5452/ma-1dqrd</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/2WH6</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/8HGO</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/4OO8</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/3DI3</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/1PEB</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/4Z18</t>
+  </si>
+  <si>
+    <t>Antigen type</t>
+  </si>
+  <si>
+    <t>Antigen source</t>
+  </si>
+  <si>
+    <t>Antigen name</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>lysozyme</t>
+  </si>
+  <si>
+    <t>ma-dpr9i (7u2e)</t>
+  </si>
+  <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 receptor binding domain</t>
+  </si>
+  <si>
+    <t>ma-cdl3l (2EXP)</t>
+  </si>
+  <si>
+    <t>EGFR peptide</t>
+  </si>
+  <si>
+    <t>protein(peptide)</t>
+  </si>
+  <si>
+    <t>ma-cjnxd (1OSO)</t>
+  </si>
+  <si>
+    <t>bacteria</t>
+  </si>
+  <si>
+    <t>ma-c7d6n (1HFM)</t>
+  </si>
+  <si>
+    <t>ma-cru5u (1EM4)</t>
+  </si>
+  <si>
+    <t>ma-ci9yk (1ATM)</t>
+  </si>
+  <si>
+    <t>ma-c8s4s(1IIF)</t>
+  </si>
+  <si>
+    <t>HY/HEL-10 FAB-LYSOZYME </t>
+  </si>
+  <si>
+    <t>Not sure, here is pupmed link to article:https://pubmed.ncbi.nlm.nih.gov/12818205/</t>
+  </si>
+  <si>
+    <t>Benzo[A]pyrene</t>
+  </si>
+  <si>
+    <t>polycylic aromatic hydrocarbon(pah)</t>
+  </si>
+  <si>
+    <t>environmental</t>
+  </si>
+  <si>
+    <t>glycoprotein</t>
+  </si>
+  <si>
+    <t>Ley tetrasaccharide</t>
+  </si>
+  <si>
+    <t>p24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virus </t>
+  </si>
+  <si>
+    <t>BH3 peptide</t>
+  </si>
+  <si>
+    <t>EGFR/HER2 ectodomain</t>
+  </si>
+  <si>
+    <t>glycosylated human interleukin-7 receptor alpha ectodomain</t>
+  </si>
+  <si>
+    <t>endonuclease</t>
+  </si>
+  <si>
+    <t>BHRF1 (2WH6)</t>
+  </si>
+  <si>
+    <t>EGFR (8HGO0</t>
+  </si>
+  <si>
+    <t>Cas9 (4OO8)</t>
+  </si>
+  <si>
+    <t>IL-7Ra (3DI3)</t>
+  </si>
+  <si>
+    <t>maltose</t>
+  </si>
+  <si>
+    <t>carbohydrate</t>
+  </si>
+  <si>
+    <t>MBP (1PEB)</t>
+  </si>
+  <si>
+    <t>programmed cell death ligand 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -175,6 +337,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -208,6 +388,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -613,128 +811,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="37.375" customWidth="1"/>
-    <col min="8" max="8" width="45.875" customWidth="1"/>
-    <col min="9" max="9" width="52.625" customWidth="1"/>
-    <col min="10" max="10" width="45.5" customWidth="1"/>
+    <col min="3" max="5" width="47" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" customWidth="1"/>
+    <col min="9" max="9" width="38" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" customWidth="1"/>
+    <col min="11" max="11" width="45.83203125" customWidth="1"/>
+    <col min="12" max="12" width="52.58203125" customWidth="1"/>
+    <col min="13" max="13" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="str">
-        <f>_xlfn.CONCAT(F2,"|",G2)</f>
+      <c r="L2" s="2" t="str">
+        <f>_xlfn.CONCAT(I2,"|",J2)</f>
         <v>DVQLQESGPSLVKPSQTLSLTCSVTGDSITSDYWSWIRKFPGNRLEYMGYVSYSGSTYYNPSLKSRISITRDTSKNQYYLDLNSVTTEDTATYYCANWDGDYWGQGTLVTVSA|DIVLTQSPATLSVTPGNSVSLSCRASQSIGNNLHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="93" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="str">
-        <f>_xlfn.CONCAT(F3,"|",G3)</f>
+      <c r="L3" s="2" t="str">
+        <f>_xlfn.CONCAT(I3,"|",J3)</f>
         <v>DVQLQESGPSLVKPSQTLSLTCSVTGDSITSDYWSWIRKFPGNRLEYMGYVSYSGSTYYNPSLKSRISITRDTSKNQYYLDLNSVTTEDTATYYCANWDGDYWGQGTLVTVSA|DIVLTQSPATLSVTPGNSVSLSCRASQSIGNNLHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{7D222CE2-D492-4B26-BAA3-242612EB0D78}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{96D64327-D74D-41F4-AB50-E666F553F258}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{DC808CB5-B7AF-4205-A1A6-896778A70EF3}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{F6672930-47AC-46D7-8558-3ACBA9AFD7D7}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{6A84F481-8B5A-4389-9A71-5326690E04E5}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{FC09CDCA-BC25-4CAF-B291-183DEF835D47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -749,7 +1200,7 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="62.75" style="4" customWidth="1"/>
@@ -757,7 +1208,7 @@
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -771,7 +1222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -785,7 +1236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -799,7 +1250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -813,7 +1264,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -827,7 +1278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -841,7 +1292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>

--- a/tests/test_cases.xlsx
+++ b/tests/test_cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tprid\OneDrive\Desktop\Internship_BetterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4536a64ec9700c3e/Desktop/Internship_BetterData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12382831-4707-412F-94DA-ED635BF9BEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A2A072-429D-4010-9102-BE5A85013CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <t>pdb_id</t>
   </si>
@@ -159,9 +159,6 @@
     <t>ma-1dqrd</t>
   </si>
   <si>
-    <t>PD-L1</t>
-  </si>
-  <si>
     <t>https://www.modelarchive.org/doi/10.5452/ma-c7d6n</t>
   </si>
   <si>
@@ -297,9 +294,6 @@
     <t>BHRF1 (2WH6)</t>
   </si>
   <si>
-    <t>EGFR (8HGO0</t>
-  </si>
-  <si>
     <t>Cas9 (4OO8)</t>
   </si>
   <si>
@@ -316,6 +310,30 @@
   </si>
   <si>
     <t>programmed cell death ligand 1</t>
+  </si>
+  <si>
+    <t>MGSHHHHHHSQDPMAYSTREILLALCIRDSRVHGNGTLHPVLELAARETPLRLSPEDTVVLRYHVLLEEIIERNSETFTETWNRFITHTEHVDLDFNSVFLEIFHRGDPSLGRALAWMAWCMHACRTLCCNQSTPYYVVDLSVRGMLEASEGLDGWIHQQGGWSTLIEDNIPG</t>
+  </si>
+  <si>
+    <t>EGFR (8HGO)</t>
+  </si>
+  <si>
+    <t>GSGHMDKKYSIGLAIGTNSVGWAVITDEYKVPSKKFKVLGNTDRHSIKKNLIGALLFDSGETAEATRLKRTARRRYTRRKNRILYLQEIFSNEMAKVDDSFFHRLEESFLVEEDKKHERHPIFGNIVDEVAYHEKYPTIYHLRKKLVDSTDKADLRLIYLALAHMIKFRGHFLIEGDLNPDNSDVDKLFIQLVQTYNQLFEENPINASGVDAKAILSARLSKSRRLENLIAQLPGEKKNGLFGNLIALSLGLTPNFKSNFDLAEDAKLQLSKDTYDDDLDNLLAQIGDQYADLFLAAKNLSDAILLSDILRVNTEITKAPLSASMIKRYDEHHQDLTLLKALVRQQLPEKYKEIFFDQSKNGYAGYIDGGASQEEFYKFIKPILEKMDGTEELLVKLNREDLLRKQRTFDNGSIPHQIHLGELHAILRRQEDFYPFLKDNREKIEKILTFRIPYYVGPLARGNSRFAWMTRKSEETITPWNFEEVVDKGASAQSFIERMTNFDKNLPNEKVLPKHSLLYEYFTVYNELTKVKYVTEGMRKPAFLSGEQKKAIVDLLFKTNRKVTVKQLKEDYFKKIEEFDSVEISGVEDRFNASLGTYHDLLKIIKDKDFLDNEENEDILEDIVLTLTLFEDREMIEERLKTYAHLFDDKVMKQLKRRRYTGWGRLSRKLINGIRDKQSGKTILDFLKSDGFANRNFMQLIHDDSLTFKEDIQKAQVSGQGDSLHEHIANLAGSPAIKKGILQTVKVVDELVKVMGRHKPENIVIEMARENQTTQKGQKNSRERMKRIEEGIKELGSQILKEHPVENTQLQNEKLYLYYLQNGRDMYVDQELDINRLSDYDVDAIVPQSFLKDDSIDNKVLTRSDKNRGKSDNVPSEEVVKKMKNYWRQLLNAKLITQRKFDNLTKAERGGLSELDKAGFIKRQLVETRQITKHVAQILDSRMNTKYDENDKLIREVKVITLKSKLVSDFRKDFQFYKVREINNYHHAHDAYLNAVVGTALIKKYPKLESEFVYGDYKVYDVRKMIAKSEQEIGKATAKYFFYSNIMNFFKTEITLANGEIRKRPLIETNGETGEIVWDKGRDFATVRKVLSMPQVNIVKKTEVQTGGFSKESILPKRNSDKLIARKKDWDPKKYGGFDSPTVAYSVLVVAKVEKGKSKKLKSVKELLGITIMERSSFEKNPIDFLEAKGYKEVKKDLIIKLPKYSLFELENGRKRMLASAGELQKGNELALPSKYVNFLYLASHYEKLKGSPEDNEQKQLFVEQHKHYLDEIIEQISEFSKRVILADANLDKVLSAYNKHRDKPIREQAENIIHLFTLTNLGAPAAFKYFDTTIDRKRYTSTKEVLDATLIHQSITGLYETRIDLSQLGGD</t>
+  </si>
+  <si>
+    <t>MELAALCRWGLLLALLPPGAASTQVCTGTDMKLRLPASPETHLDMLRHLYQGCQVVQGNLELTYLPTNASLSFLQDIQEVQGYVLIAHNQVRQVPLQRLRIVRGTQLFEDNYALAVLDNGDPLNNTTPVTGASPGGLRELQLRSLTEILKGGVLIQRNPQLCYQDTILWKDIFHKNNQLALTLIDTNRSRACHPCSPMCKGSRCWGESSEDCQSLTRTVCAGGCARCKGPLPTDCCHEQCAAGCTGPKHSDCLACLHFNHSGICELHCPALVTYNTDTFESMPNPEGRYTFGASCVTACPYNYLSTDVGSCTLVCPLHNQEVTAEDGTQRCEKCSKPCARVCYGLGMEHLREVRAVTSANIQEFAGCKKIFGSLAFLPESFDGDPASNTAPLQPEQLQVFETLEEITGYLYISAWPDSLPDLSVFQNLQVIRGRILHNGAYSLTLQGLGISWLGLRSLRELGSGLALIHHNTHLCFVHTVPWDQLFRNPHQALLHTANRPEDECVGEGLACHQLCARGHCWGPGPTQCVNCSQFLRGQECVEECRVLQGLPREYVNARHCLPCHPECQPQNGSVTCFGPEADQCVACAHYKDPPFCVARCPSGVKPDLSYMPIWKFPDEEGACQPCPINCTHSCVDLDDKGCPAEQRASPLTSIISAVVGILLVVVLGVVFGILIKRRQQKIRKYTMRRLLQEGGSENLYFQGGGSAQLEKELQALEKENAQLEWELQALEKELAQSNSLEVLFQ</t>
+  </si>
+  <si>
+    <t>MGDCDIEGKDGKQYESVLMVSIDQLLDSMKEIGSNCLNNEFNFFKRHICDANKEGMFLFRAARKLRQFLKMNSTGDFDLHLLKVSEGTTILLNCTGQVKGRKPAALGAAQPTKSLEENKSLKEQKKLNDLCFLKRLLQEIKTCWNKILMGTKEH</t>
+  </si>
+  <si>
+    <t>KIEEGKLVIWINGDKGYNGLAEVGKKFEKDTGIKVTVEHPDKLEEKFPQVAATGDGPDIIFWAHDRFGGYAQSGLLAEITPDKAFQDKLYPFTWDAVRYNGKLIAYPIAVEALSLIYNKDLLPNPPKTWEEIPALDKELKAKGKSALMFNLQEPYFTWPLIAADGGYAFKYGDIKDVGVDNAGAKAGLTFLVDLIKNKHMNADTDYSIAEAAFNKGETAMTINGPWAWSNIDTSKVNYGVTVLPTFKGQPSKPFVGVLSAGINAASPNKELAKEFLENYLLTDEGLEAVNKDKPLGAVALKSYEEELAKDPRIAATAENAAKGEIMPNIPQMSAFWYAVRTAVINAASGRQTVDEALKDAQTRITK</t>
+  </si>
+  <si>
+    <t>PD-L1 (4Z18)</t>
+  </si>
+  <si>
+    <t>MFTVTVPKDLYVVEYGSNMTIECKFPVEKQLDLAALIVYWEMEDKNIIQFVHGEEDLKVQHSSYRQRARLLKDQLSLGNAALQITDVKLQDAGVYRCMISYGGADYKRITVKVNAPYNKINQRILVVDPVTSEHELTCQAEGYPKAEVIWTSSDHQVLSGKTTTTNSKREEKLFNVTSTLRINTTTNEIFYCTFRRLDPEENHTAELVIPELPLAHPPNERT</t>
   </si>
 </sst>
 </file>
@@ -811,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -840,13 +858,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -881,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -917,19 +935,19 @@
     </row>
     <row r="3" spans="1:13" ht="93" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -959,102 +977,102 @@
     </row>
     <row r="4" spans="1:13" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -1062,119 +1080,157 @@
         <v>39</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="62" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E14" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="K14" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="K15" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="93" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="K16" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="10"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K22" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/tests/test_cases.xlsx
+++ b/tests/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4536a64ec9700c3e/Desktop/Internship_BetterData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\peleke\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A2A072-429D-4010-9102-BE5A85013CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51528AF1-272B-463E-AA41-6DA0B61937F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_cases" sheetId="1" r:id="rId1"/>
@@ -396,9 +396,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -408,22 +407,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -831,406 +840,407 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="5" width="47" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" customWidth="1"/>
-    <col min="9" max="9" width="38" customWidth="1"/>
-    <col min="10" max="10" width="37.33203125" customWidth="1"/>
-    <col min="11" max="11" width="45.83203125" customWidth="1"/>
-    <col min="12" max="12" width="52.58203125" customWidth="1"/>
-    <col min="13" max="13" width="45.5" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="47" style="2" customWidth="1"/>
+    <col min="3" max="5" width="47" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="38" style="2" customWidth="1"/>
+    <col min="10" max="10" width="37.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="80.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="52.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="45.5" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2" t="str">
+      <c r="L2" s="3" t="str">
         <f>_xlfn.CONCAT(I2,"|",J2)</f>
         <v>DVQLQESGPSLVKPSQTLSLTCSVTGDSITSDYWSWIRKFPGNRLEYMGYVSYSGSTYYNPSLKSRISITRDTSKNQYYLDLNSVTTEDTATYYCANWDGDYWGQGTLVTVSA|DIVLTQSPATLSVTPGNSVSLSCRASQSIGNNLHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="93" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2" t="str">
+      <c r="L3" s="3" t="str">
         <f>_xlfn.CONCAT(I3,"|",J3)</f>
         <v>DVQLQESGPSLVKPSQTLSLTCSVTGDSITSDYWSWIRKFPGNRLEYMGYVSYSGSTYYNPSLKSRISITRDTSKNQYYLDLNSVTTEDTATYYCANWDGDYWGQGTLVTVSA|DIVLTQSPATLSVTPGNSVSLSCRASQSIGNNLHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="294.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:13" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:13" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="62" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="93" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="10"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K22" s="2"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="12"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1242,6 +1252,7 @@
     <hyperlink ref="B5" r:id="rId6" xr:uid="{F6672930-47AC-46D7-8558-3ACBA9AFD7D7}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{6A84F481-8B5A-4389-9A71-5326690E04E5}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{FC09CDCA-BC25-4CAF-B291-183DEF835D47}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{B3C706C2-5924-476C-8641-4623CF5FA752}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1256,109 +1267,109 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="62.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="60.5" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="62.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="60.5" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="62" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="62" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
     </row>

--- a/tests/test_cases.xlsx
+++ b/tests/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\peleke\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51528AF1-272B-463E-AA41-6DA0B61937F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62228BEC-5AD3-476D-A2D6-73D44DB19187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t>pdb_id</t>
   </si>
@@ -45,27 +45,12 @@
     <t>source</t>
   </si>
   <si>
-    <t>h_chain_id</t>
-  </si>
-  <si>
-    <t>l_chain_id</t>
-  </si>
-  <si>
     <t>antigen_ids</t>
   </si>
   <si>
-    <t>h_chain_seq</t>
-  </si>
-  <si>
-    <t>l_chain_seq</t>
-  </si>
-  <si>
     <t>antigen_seqs</t>
   </si>
   <si>
-    <t>antibody_sequences</t>
-  </si>
-  <si>
     <t>highlighted_epitope_sequences</t>
   </si>
   <si>
@@ -75,21 +60,9 @@
     <t>https://www.modelarchive.org/doi/10.5452/ma-ccy4e</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>DVQLQESGPSLVKPSQTLSLTCSVTGDSITSDYWSWIRKFPGNRLEYMGYVSYSGSTYYNPSLKSRISITRDTSKNQYYLDLNSVTTEDTATYYCANWDGDYWGQGTLVTVSA</t>
-  </si>
-  <si>
-    <t>DIVLTQSPATLSVTPGNSVSLSCRASQSIGNNLHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</t>
-  </si>
-  <si>
     <t>KVFGRCELAAAMKRHGLDNYRGYSLGNWVCAAKFESNFNTQATNRNTDGSTDYGILQINSRWWCNDGRTPGSRNLCNIPCSALLSSDITASVNCAKKIVSDGNGMNAWVAWRNRCKGTDVQAWIRGCRL</t>
   </si>
   <si>
@@ -334,13 +307,28 @@
   </si>
   <si>
     <t>MFTVTVPKDLYVVEYGSNMTIECKFPVEKQLDLAALIVYWEMEDKNIIQFVHGEEDLKVQHSSYRQRARLLKDQLSLGNAALQITDVKLQDAGVYRCMISYGGADYKRITVKVNAPYNKINQRILVVDPVTSEHELTCQAEGYPKAEVIWTSSDHQVLSGKTTTTNSKREEKLFNVTSTLRINTTTNEIFYCTFRRLDPEENHTAELVIPELPLAHPPNERT</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/9HAG</t>
+  </si>
+  <si>
+    <t>synthetic</t>
+  </si>
+  <si>
+    <t>De novo designed beta barrel fold BBF-14</t>
+  </si>
+  <si>
+    <t>MGTPLWALLGGPWRGTATYEDGTKVTLDYRYTRVSPDRLRADVTYTTPDGTTLEATVDLWKDANGVIRYHATYPDGTSADGTLTQLDADTLLATGTYDDGTKYTVTLTRVAPGSGWHHHHHH</t>
+  </si>
+  <si>
+    <t>BBF-14 (9HAG)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -374,6 +362,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -396,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -434,6 +437,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -838,29 +850,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="47" style="2" customWidth="1"/>
-    <col min="3" max="5" width="47" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="38" style="2" customWidth="1"/>
-    <col min="10" max="10" width="37.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="80.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="52.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="45.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.5" style="2"/>
+    <col min="3" max="3" width="43.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="80.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="45.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -868,13 +877,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -885,362 +894,331 @@
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="C2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="3" t="str">
-        <f>_xlfn.CONCAT(I2,"|",J2)</f>
-        <v>DVQLQESGPSLVKPSQTLSLTCSVTGDSITSDYWSWIRKFPGNRLEYMGYVSYSGSTYYNPSLKSRISITRDTSKNQYYLDLNSVTTEDTATYYCANWDGDYWGQGTLVTVSA|DIVLTQSPATLSVTPGNSVSLSCRASQSIGNNLHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="3" t="str">
-        <f>_xlfn.CONCAT(I3,"|",J3)</f>
-        <v>DVQLQESGPSLVKPSQTLSLTCSVTGDSITSDYWSWIRKFPGNRLEYMGYVSYSGSTYYNPSLKSRISITRDTSKNQYYLDLNSVTTEDTATYYCANWDGDYWGQGTLVTVSA|DIVLTQSPATLSVTPGNSVSLSCRASQSIGNNLHWYQQKSHESPRLLIKYASQSISGIPSRFSGSGSGTDFTLSINSVETEDFGMYFCQQSNSWPYTFGGGTKLEIK</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="299.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="C13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="E13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="C14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="E15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="D16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="E17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="299.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="12"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="3"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1253,6 +1231,7 @@
     <hyperlink ref="B7" r:id="rId7" xr:uid="{6A84F481-8B5A-4389-9A71-5326690E04E5}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{FC09CDCA-BC25-4CAF-B291-183DEF835D47}"/>
     <hyperlink ref="B8" r:id="rId9" xr:uid="{B3C706C2-5924-476C-8641-4623CF5FA752}"/>
+    <hyperlink ref="B17" r:id="rId10" xr:uid="{28749369-DA18-43E9-BCBB-C2E3260E45D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1280,97 +1259,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_cases.xlsx
+++ b/tests/test_cases.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4536a64ec9700c3e/Desktop/Internship_BetterData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/peleke/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="14_{8E0D2F5A-F903-43F7-9CF9-636BAE75E1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB8133F8-B8A7-452C-9310-E3F3B2FAED4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7EB8AD-700A-7048-A4D5-5FB937A356E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_cases" sheetId="1" r:id="rId1"/>
     <sheet name="generated_seqs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -874,24 +873,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="47" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="80.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="65.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="45.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -917,7 +916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -943,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="93" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
@@ -969,7 +968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>58</v>
       </c>
@@ -986,7 +985,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
@@ -1001,7 +1000,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -1018,7 +1017,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
@@ -1035,7 +1034,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>61</v>
       </c>
@@ -1069,7 +1068,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="93" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>75</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="232.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>82</v>
       </c>
@@ -1132,7 +1131,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="294.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="323" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>76</v>
       </c>
@@ -1153,7 +1152,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>77</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>95</v>
       </c>
@@ -1194,7 +1193,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="93" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>86</v>
       </c>
@@ -1217,7 +1216,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>96</v>
       </c>
@@ -1240,19 +1239,19 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G22" s="3"/>
     </row>
   </sheetData>
@@ -1281,15 +1280,15 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="62.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="60.5" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1331,7 +1330,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1345,7 +1344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1359,7 +1358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1373,7 +1372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>

--- a/tests/test_cases.xlsx
+++ b/tests/test_cases.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\peleke\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4536a64ec9700c3e/Desktop/Internship_BetterData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62228BEC-5AD3-476D-A2D6-73D44DB19187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="14_{8E0D2F5A-F903-43F7-9CF9-636BAE75E1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB8133F8-B8A7-452C-9310-E3F3B2FAED4B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_cases" sheetId="1" r:id="rId1"/>
     <sheet name="generated_seqs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
   <si>
     <t>pdb_id</t>
   </si>
@@ -279,9 +280,6 @@
     <t>carbohydrate</t>
   </si>
   <si>
-    <t>MBP (1PEB)</t>
-  </si>
-  <si>
     <t>programmed cell death ligand 1</t>
   </si>
   <si>
@@ -300,9 +298,6 @@
     <t>MGDCDIEGKDGKQYESVLMVSIDQLLDSMKEIGSNCLNNEFNFFKRHICDANKEGMFLFRAARKLRQFLKMNSTGDFDLHLLKVSEGTTILLNCTGQVKGRKPAALGAAQPTKSLEENKSLKEQKKLNDLCFLKRLLQEIKTCWNKILMGTKEH</t>
   </si>
   <si>
-    <t>KIEEGKLVIWINGDKGYNGLAEVGKKFEKDTGIKVTVEHPDKLEEKFPQVAATGDGPDIIFWAHDRFGGYAQSGLLAEITPDKAFQDKLYPFTWDAVRYNGKLIAYPIAVEALSLIYNKDLLPNPPKTWEEIPALDKELKAKGKSALMFNLQEPYFTWPLIAADGGYAFKYGDIKDVGVDNAGAKAGLTFLVDLIKNKHMNADTDYSIAEAAFNKGETAMTINGPWAWSNIDTSKVNYGVTVLPTFKGQPSKPFVGVLSAGINAASPNKELAKEFLENYLLTDEGLEAVNKDKPLGAVALKSYEEELAKDPRIAATAENAAKGEIMPNIPQMSAFWYAVRTAVINAASGRQTVDEALKDAQTRITK</t>
-  </si>
-  <si>
     <t>PD-L1 (4Z18)</t>
   </si>
   <si>
@@ -321,7 +316,25 @@
     <t>MGTPLWALLGGPWRGTATYEDGTKVTLDYRYTRVSPDRLRADVTYTTPDGTTLEATVDLWKDANGVIRYHATYPDGTSADGTLTQLDADTLLATGTYDDGTKYTVTLTRVAPGSGWHHHHHH</t>
   </si>
   <si>
-    <t>BBF-14 (9HAG)</t>
+    <t>AYSTREILLALCIRDSRVHGNGTLHPVLELAARETPLRLSPEDTVVLRYHVLLEE[I]IE[R][N]SE[T][F]TE[T]WN[R][F]IT[H][T]EHVDL[D]FN[S][V]FL[E][I]FH[R]GDP[S][L][G][R]A[L][A][W]MA[W]CMHACRTLCCNQSTPYYVVDLSVRGMLEASEGLDGWIHQQGGWSTLIEDN[I]|DMRPEIWIAQELRRIGDEFNAY</t>
+  </si>
+  <si>
+    <t>[M]F[T]V[T]VPKDLYVVEYGSNMTIECKF[P][V]EKQLDLAALIVYWEMEDKNIIQFVHGEEDLKVQHSSYRQRARLLKDQLS[L]GNAALQITDVKLQDAGVYRCMISYGGADYKRITVKVNAPY[N][K][I][N][Q][R][I][L]VVDPVTSEHEL[T]C[Q]AEGYPKAEVIWTSSDHQVLSGKTTTTNS[K][R]EEKLFNV[T]STLRINTTTNEIFYCTFRRLDPEENHTAELVIP</t>
+  </si>
+  <si>
+    <t>KDG[K][Q]YE[S][V][L]M[V]SID[Q]LLDSMKEIGSNCLNNEFNFFKRHICDANKEGMFLFRAARKLRQFLKMNS[T]G[D]FD[L]HL[L][K]VS[E][G]TT[I]LLNCTGQVKGQKKLNDLCFLKRLLQEIKTCWNKILM</t>
+  </si>
+  <si>
+    <t>MBP (1PEB) (1NL5 for testing)</t>
+  </si>
+  <si>
+    <t>BBF-14 (9HAG) (9HAC for testing)</t>
+  </si>
+  <si>
+    <t>QVCTGTDMKLRLPASPETHLDMLRHLYQGCQVVQGNLELTYLPTNASLSFLQDIQEVQGYVLIAHNQVRQVPLQRLRIVRGTQLFEDNYALAVLDNGPGGLRELQLRSLTEILKGGVLIQRNPQLCYQDTILWKDIFHKNNQLALTLIDTNRSRACHPCSPMCKGSRCWGESSEDCQSLTRTVCA[G][G][C]ARCKGPL[P][T][D][C][C][H][E]QCAAGCTG[P][K][H]SDCLACLHFNHSGICEL[H]CPAL[V]T[Y]N[T][D][T][F][E][S]MPNPEGRYTFGASCVTACPYNYLST[D][V]GSCTLVC[P][L]HNQEVTAEDGTQRC[E][K]CSKPCARVCYGLGM[E]HLREVRAVTSANIQEFAGCKKIFGSLAFLPESFDGDPASNTAPLQPEQLQVFETLEEITGYLYISAWPDSLPDLSVFQNLQVIRGRILHNGAYSLTLQGLGISWLGLRSLRELGSGLALIHHNTHLCFVHTVPWDQLFRNPHQALLHTANRPEDECVGEGLACHQLCARGHCWGPGPTQCVNCSQFLRGQECVEECRVLQGLPREYVNARHCLPCHPECQPQNGSVTCFGPEADQCVACAHYKDPPFCVAR</t>
+  </si>
+  <si>
+    <t>GTPLWALLGGPWRGTATY[E][D]GTKVTLDYRYTRVSPDRLRADVTYTTPDGTTLEATVDLWKDA[N]G[V]I[R]YHATYPDGTSADG[T]L[T]Q[L]DADTL[L]A[T]GTYDDGTKYTVTLTRVAPGSGWHHH[H]H[H]</t>
   </si>
 </sst>
 </file>
@@ -378,12 +391,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -399,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -446,6 +465,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -852,24 +874,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="47" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="80.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="80.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="45.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -895,7 +917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="62" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -921,7 +943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="93" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
@@ -947,7 +969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>58</v>
       </c>
@@ -964,7 +986,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
@@ -979,7 +1001,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
@@ -996,7 +1018,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
@@ -1013,7 +1035,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
@@ -1030,7 +1052,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>61</v>
       </c>
@@ -1047,7 +1069,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1064,8 +1086,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:8" ht="93" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1081,12 +1103,15 @@
         <v>71</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>39</v>
@@ -1101,10 +1126,13 @@
         <v>72</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="299.25" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="294.5" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>76</v>
       </c>
@@ -1122,11 +1150,11 @@
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1142,12 +1170,15 @@
         <v>73</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>42</v>
@@ -1161,13 +1192,11 @@
       <c r="E15" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>88</v>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="93" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>43</v>
@@ -1179,45 +1208,51 @@
         <v>48</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G22" s="3"/>
     </row>
   </sheetData>
@@ -1242,11 +1277,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DCA68F-588E-4FFF-B914-9DE9C76E107A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="62.75" style="3" customWidth="1"/>
@@ -1254,7 +1289,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1282,7 +1317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1296,7 +1331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1310,7 +1345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1324,7 +1359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1338,7 +1373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>

--- a/tests/test_cases.xlsx
+++ b/tests/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/peleke/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7EB8AD-700A-7048-A4D5-5FB937A356E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860D6CE8-61D3-6549-8A79-A204BF481F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,7 +333,7 @@
     <t>QVCTGTDMKLRLPASPETHLDMLRHLYQGCQVVQGNLELTYLPTNASLSFLQDIQEVQGYVLIAHNQVRQVPLQRLRIVRGTQLFEDNYALAVLDNGPGGLRELQLRSLTEILKGGVLIQRNPQLCYQDTILWKDIFHKNNQLALTLIDTNRSRACHPCSPMCKGSRCWGESSEDCQSLTRTVCA[G][G][C]ARCKGPL[P][T][D][C][C][H][E]QCAAGCTG[P][K][H]SDCLACLHFNHSGICEL[H]CPAL[V]T[Y]N[T][D][T][F][E][S]MPNPEGRYTFGASCVTACPYNYLST[D][V]GSCTLVC[P][L]HNQEVTAEDGTQRC[E][K]CSKPCARVCYGLGM[E]HLREVRAVTSANIQEFAGCKKIFGSLAFLPESFDGDPASNTAPLQPEQLQVFETLEEITGYLYISAWPDSLPDLSVFQNLQVIRGRILHNGAYSLTLQGLGISWLGLRSLRELGSGLALIHHNTHLCFVHTVPWDQLFRNPHQALLHTANRPEDECVGEGLACHQLCARGHCWGPGPTQCVNCSQFLRGQECVEECRVLQGLPREYVNARHCLPCHPECQPQNGSVTCFGPEADQCVACAHYKDPPFCVAR</t>
   </si>
   <si>
-    <t>GTPLWALLGGPWRGTATY[E][D]GTKVTLDYRYTRVSPDRLRADVTYTTPDGTTLEATVDLWKDA[N]G[V]I[R]YHATYPDGTSADG[T]L[T]Q[L]DADTL[L]A[T]GTYDDGTKYTVTLTRVAPGSGWHHH[H]H[H]</t>
+    <t>MGTPLWALLGGPWRGTATY[E][D]GTKVTLDYRYTRVSPDRLRADVTYTTPDGTTLEATVDLWKDA[N]G[V]I[R]YHATYPDGTSADG[T]L[T]Q[L]DADTL[L]A[T]GTYDDGTKYTVTLTRVAPGSGWHHH[H]H[H]</t>
   </si>
 </sst>
 </file>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/test_cases.xlsx
+++ b/tests/test_cases.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/peleke/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\peleke\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860D6CE8-61D3-6549-8A79-A204BF481F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6400E3FF-763E-4CC4-B41F-19F0F60DBCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47805" yWindow="2490" windowWidth="28800" windowHeight="17835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_cases" sheetId="1" r:id="rId1"/>
-    <sheet name="generated_seqs" sheetId="2" r:id="rId2"/>
+    <sheet name="model_archive_examples" sheetId="3" r:id="rId2"/>
+    <sheet name="generated_seqs" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
   <si>
     <t>pdb_id</t>
   </si>
@@ -159,9 +160,6 @@
     <t>https://www.rcsb.org/structure/8HGO</t>
   </si>
   <si>
-    <t>https://www.rcsb.org/structure/4OO8</t>
-  </si>
-  <si>
     <t>https://www.rcsb.org/structure/3DI3</t>
   </si>
   <si>
@@ -252,54 +250,27 @@
     <t xml:space="preserve">virus </t>
   </si>
   <si>
-    <t>BH3 peptide</t>
-  </si>
-  <si>
     <t>EGFR/HER2 ectodomain</t>
   </si>
   <si>
     <t>glycosylated human interleukin-7 receptor alpha ectodomain</t>
   </si>
   <si>
-    <t>endonuclease</t>
-  </si>
-  <si>
-    <t>BHRF1 (2WH6)</t>
-  </si>
-  <si>
-    <t>Cas9 (4OO8)</t>
-  </si>
-  <si>
-    <t>IL-7Ra (3DI3)</t>
-  </si>
-  <si>
     <t>maltose</t>
   </si>
   <si>
-    <t>carbohydrate</t>
-  </si>
-  <si>
     <t>programmed cell death ligand 1</t>
   </si>
   <si>
     <t>MGSHHHHHHSQDPMAYSTREILLALCIRDSRVHGNGTLHPVLELAARETPLRLSPEDTVVLRYHVLLEEIIERNSETFTETWNRFITHTEHVDLDFNSVFLEIFHRGDPSLGRALAWMAWCMHACRTLCCNQSTPYYVVDLSVRGMLEASEGLDGWIHQQGGWSTLIEDNIPG</t>
   </si>
   <si>
-    <t>EGFR (8HGO)</t>
-  </si>
-  <si>
-    <t>GSGHMDKKYSIGLAIGTNSVGWAVITDEYKVPSKKFKVLGNTDRHSIKKNLIGALLFDSGETAEATRLKRTARRRYTRRKNRILYLQEIFSNEMAKVDDSFFHRLEESFLVEEDKKHERHPIFGNIVDEVAYHEKYPTIYHLRKKLVDSTDKADLRLIYLALAHMIKFRGHFLIEGDLNPDNSDVDKLFIQLVQTYNQLFEENPINASGVDAKAILSARLSKSRRLENLIAQLPGEKKNGLFGNLIALSLGLTPNFKSNFDLAEDAKLQLSKDTYDDDLDNLLAQIGDQYADLFLAAKNLSDAILLSDILRVNTEITKAPLSASMIKRYDEHHQDLTLLKALVRQQLPEKYKEIFFDQSKNGYAGYIDGGASQEEFYKFIKPILEKMDGTEELLVKLNREDLLRKQRTFDNGSIPHQIHLGELHAILRRQEDFYPFLKDNREKIEKILTFRIPYYVGPLARGNSRFAWMTRKSEETITPWNFEEVVDKGASAQSFIERMTNFDKNLPNEKVLPKHSLLYEYFTVYNELTKVKYVTEGMRKPAFLSGEQKKAIVDLLFKTNRKVTVKQLKEDYFKKIEEFDSVEISGVEDRFNASLGTYHDLLKIIKDKDFLDNEENEDILEDIVLTLTLFEDREMIEERLKTYAHLFDDKVMKQLKRRRYTGWGRLSRKLINGIRDKQSGKTILDFLKSDGFANRNFMQLIHDDSLTFKEDIQKAQVSGQGDSLHEHIANLAGSPAIKKGILQTVKVVDELVKVMGRHKPENIVIEMARENQTTQKGQKNSRERMKRIEEGIKELGSQILKEHPVENTQLQNEKLYLYYLQNGRDMYVDQELDINRLSDYDVDAIVPQSFLKDDSIDNKVLTRSDKNRGKSDNVPSEEVVKKMKNYWRQLLNAKLITQRKFDNLTKAERGGLSELDKAGFIKRQLVETRQITKHVAQILDSRMNTKYDENDKLIREVKVITLKSKLVSDFRKDFQFYKVREINNYHHAHDAYLNAVVGTALIKKYPKLESEFVYGDYKVYDVRKMIAKSEQEIGKATAKYFFYSNIMNFFKTEITLANGEIRKRPLIETNGETGEIVWDKGRDFATVRKVLSMPQVNIVKKTEVQTGGFSKESILPKRNSDKLIARKKDWDPKKYGGFDSPTVAYSVLVVAKVEKGKSKKLKSVKELLGITIMERSSFEKNPIDFLEAKGYKEVKKDLIIKLPKYSLFELENGRKRMLASAGELQKGNELALPSKYVNFLYLASHYEKLKGSPEDNEQKQLFVEQHKHYLDEIIEQISEFSKRVILADANLDKVLSAYNKHRDKPIREQAENIIHLFTLTNLGAPAAFKYFDTTIDRKRYTSTKEVLDATLIHQSITGLYETRIDLSQLGGD</t>
-  </si>
-  <si>
     <t>MELAALCRWGLLLALLPPGAASTQVCTGTDMKLRLPASPETHLDMLRHLYQGCQVVQGNLELTYLPTNASLSFLQDIQEVQGYVLIAHNQVRQVPLQRLRIVRGTQLFEDNYALAVLDNGDPLNNTTPVTGASPGGLRELQLRSLTEILKGGVLIQRNPQLCYQDTILWKDIFHKNNQLALTLIDTNRSRACHPCSPMCKGSRCWGESSEDCQSLTRTVCAGGCARCKGPLPTDCCHEQCAAGCTGPKHSDCLACLHFNHSGICELHCPALVTYNTDTFESMPNPEGRYTFGASCVTACPYNYLSTDVGSCTLVCPLHNQEVTAEDGTQRCEKCSKPCARVCYGLGMEHLREVRAVTSANIQEFAGCKKIFGSLAFLPESFDGDPASNTAPLQPEQLQVFETLEEITGYLYISAWPDSLPDLSVFQNLQVIRGRILHNGAYSLTLQGLGISWLGLRSLRELGSGLALIHHNTHLCFVHTVPWDQLFRNPHQALLHTANRPEDECVGEGLACHQLCARGHCWGPGPTQCVNCSQFLRGQECVEECRVLQGLPREYVNARHCLPCHPECQPQNGSVTCFGPEADQCVACAHYKDPPFCVARCPSGVKPDLSYMPIWKFPDEEGACQPCPINCTHSCVDLDDKGCPAEQRASPLTSIISAVVGILLVVVLGVVFGILIKRRQQKIRKYTMRRLLQEGGSENLYFQGGGSAQLEKELQALEKENAQLEWELQALEKELAQSNSLEVLFQ</t>
   </si>
   <si>
     <t>MGDCDIEGKDGKQYESVLMVSIDQLLDSMKEIGSNCLNNEFNFFKRHICDANKEGMFLFRAARKLRQFLKMNSTGDFDLHLLKVSEGTTILLNCTGQVKGRKPAALGAAQPTKSLEENKSLKEQKKLNDLCFLKRLLQEIKTCWNKILMGTKEH</t>
   </si>
   <si>
-    <t>PD-L1 (4Z18)</t>
-  </si>
-  <si>
     <t>MFTVTVPKDLYVVEYGSNMTIECKFPVEKQLDLAALIVYWEMEDKNIIQFVHGEEDLKVQHSSYRQRARLLKDQLSLGNAALQITDVKLQDAGVYRCMISYGGADYKRITVKVNAPYNKINQRILVVDPVTSEHELTCQAEGYPKAEVIWTSSDHQVLSGKTTTTNSKREEKLFNVTSTLRINTTTNEIFYCTFRRLDPEENHTAELVIPELPLAHPPNERT</t>
   </si>
   <si>
@@ -324,16 +295,112 @@
     <t>KDG[K][Q]YE[S][V][L]M[V]SID[Q]LLDSMKEIGSNCLNNEFNFFKRHICDANKEGMFLFRAARKLRQFLKMNS[T]G[D]FD[L]HL[L][K]VS[E][G]TT[I]LLNCTGQVKGQKKLNDLCFLKRLLQEIKTCWNKILM</t>
   </si>
   <si>
-    <t>MBP (1PEB) (1NL5 for testing)</t>
-  </si>
-  <si>
-    <t>BBF-14 (9HAG) (9HAC for testing)</t>
-  </si>
-  <si>
     <t>QVCTGTDMKLRLPASPETHLDMLRHLYQGCQVVQGNLELTYLPTNASLSFLQDIQEVQGYVLIAHNQVRQVPLQRLRIVRGTQLFEDNYALAVLDNGPGGLRELQLRSLTEILKGGVLIQRNPQLCYQDTILWKDIFHKNNQLALTLIDTNRSRACHPCSPMCKGSRCWGESSEDCQSLTRTVCA[G][G][C]ARCKGPL[P][T][D][C][C][H][E]QCAAGCTG[P][K][H]SDCLACLHFNHSGICEL[H]CPAL[V]T[Y]N[T][D][T][F][E][S]MPNPEGRYTFGASCVTACPYNYLST[D][V]GSCTLVC[P][L]HNQEVTAEDGTQRC[E][K]CSKPCARVCYGLGM[E]HLREVRAVTSANIQEFAGCKKIFGSLAFLPESFDGDPASNTAPLQPEQLQVFETLEEITGYLYISAWPDSLPDLSVFQNLQVIRGRILHNGAYSLTLQGLGISWLGLRSLRELGSGLALIHHNTHLCFVHTVPWDQLFRNPHQALLHTANRPEDECVGEGLACHQLCARGHCWGPGPTQCVNCSQFLRGQECVEECRVLQGLPREYVNARHCLPCHPECQPQNGSVTCFGPEADQCVACAHYKDPPFCVAR</t>
   </si>
   <si>
     <t>MGTPLWALLGGPWRGTATY[E][D]GTKVTLDYRYTRVSPDRLRADVTYTTPDGTTLEATVDLWKDA[N]G[V]I[R]YHATYPDGTSADG[T]L[T]Q[L]DADTL[L]A[T]GTYDDGTKYTVTLTRVAPGSGWHHH[H]H[H]</t>
+  </si>
+  <si>
+    <t>KIEEGKLVIWINGDKGYNGLAEVGKKFEKDTGIKVTVEHPDKLEEKFPQVAATGDGPDIIFWAHDRFGGYAQSGLLAEITPDKAFQDKLYPFTWDAVRYNGKLIAYPIAVEALSLIYNKDLLPNPPKTWEEIPALDKELKAKGKSALMFNLQEPYFTWPLIAADGGYAFKYGDIKDVGVDNAGAKAGLTFLVDLIKNKHMNADTDYSIAEAAFNKGETAMTINGPWAWSNIDTSKVNYGVTVLPTFKGQPSKPFVGVLSAGINAASPNKELAKEFLENYLLTDEGLEAVNKDKPLGAVALKSYEEELAKDPRIAATAENAAKGEIMPNIPQMSAFWYAVRTAVINAASGRQTVDEALKDAQTRITK</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Epstein-Barr virus strain ag876 BHRF1</t>
+  </si>
+  <si>
+    <t>KIEEGKLVIWING[D][K]GYNGLAEVGKKFEKDTGIKVTVEHPDKLEEKFPQVAATGDGPDIIF[W]AH[D][R]FGGYAQSGLLAEITPDKAFQDKLYPFTWDAVRYNGKLIAYPIAV[E]ALSLIYNKDLLPNPPKTWEEIPALDKELKAKGKSALMFNLQEP[Y]FTWPLIAADGGYAFKYGDIKDVGVDNAGAKAGLTFLVDLIKNKHMNADTDYSIAEAAFNKGETAMTINGPWAWSNIDTSKVNYGVTVLPTFKGQPSKPFVGVLSAGINAASPNKELAKEFLENYLLTDEGLEAVNKDKPLGAVALKSYEEELAKDPRIAATAENAAKGEIMPNIPQMSAFWYAV[R]TAVINAASGRQTVDEALKDAQTRITK</t>
+  </si>
+  <si>
+    <t>NPPTFSPALLVVTEGDNATFTCSFS[S][F][V]L[N]WYRMQ[T][D][K]LAAF[P]E[D][R][S][Q][P][G]QDSRFRVTQLPNGRDFHMSVVRARRNDSGTYLCGA[I]S[L]AQIKESLRAELRV</t>
+  </si>
+  <si>
+    <t>PD-1</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>antigen_id</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSTLSASVGDRVTITCRASQSIGAWLAWYQQKPGKAPKLLIYKASSLESGVPSRFSGSGSGTEFTLTISSLQPDDFATYYCQQYNSYSITFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTSYGISWVRQAPGQGLEWMGWISAYNGNTNYAQKFQGRVTMTTDTSTTTGYMELRRLRSDDTAVYYCARDRYYGSSYFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>BHRF1</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKKPGASVKVSCKASGYTFTGYYFHWVRQAPGQGPEWVGWINGGNGDTSYAQKFQGRVTLTDDTSTSTAYMELSSLRSEDTAVYYCARETAYGWYFDYWGQGTLVTVSS</t>
+  </si>
+  <si>
+    <t>DIQMTQSPSSLSASVGDRVTITCRASQDISDYLNWYQQKPGKAPKLLIYAASRLQSGVPSRFSGSGSGTDFTLTISSLQPEDFATYYCQQYNSYPLTFGQGTKVEIK</t>
+  </si>
+  <si>
+    <t>2wh6</t>
+  </si>
+  <si>
+    <t>8hgo</t>
+  </si>
+  <si>
+    <t>3di3</t>
+  </si>
+  <si>
+    <t>4z18</t>
+  </si>
+  <si>
+    <t>1peb (1nl5)</t>
+  </si>
+  <si>
+    <t>MBP</t>
+  </si>
+  <si>
+    <t>IL-7Ra</t>
+  </si>
+  <si>
+    <t>EGFR</t>
+  </si>
+  <si>
+    <t>9hag (9hac)</t>
+  </si>
+  <si>
+    <t>5jxe</t>
+  </si>
+  <si>
+    <t>BBF-14</t>
+  </si>
+  <si>
+    <t>PD-L1</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/5JXE</t>
+  </si>
+  <si>
+    <t>Programmed cell death protein 1</t>
+  </si>
+  <si>
+    <t>NPPTFSPALLVVTEGDNATFTCSFSNTSESFVLNWYRMSPSNQTDKLAAFPEDRSQPGQDSRFRVTQLPNGRDFHMSVVRARRNDSGTYLCGAISLAPKAQIKESLRAELRVTE</t>
+  </si>
+  <si>
+    <t>VQLVQSGAEVKKPGSSVKVSCKASGGTFNSYAFSWVRQAPGQGLEWMGGIIPIVGTTNYAQKFQGRVTITADESTSTAYMELSSLRSEDTAVYYCARDISVDGALDYWGQGTLVTVS</t>
+  </si>
+  <si>
+    <t>IVMTQSPLSLPVTLGQPASISCRSSQSLVHSNGNTYLEWYLQKPGQSPQLLIYKVSNRFSGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCFQGSHVPWTFGGGTKLEIK</t>
+  </si>
+  <si>
+    <t>peleke-phi-4</t>
+  </si>
+  <si>
+    <t>antigen_source</t>
+  </si>
+  <si>
+    <t>antigen_name</t>
+  </si>
+  <si>
+    <t>highlighted_epitope_seqs</t>
   </si>
 </sst>
 </file>
@@ -375,33 +442,25 @@
       <family val="2"/>
     </font>
     <font>
-      <strike/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <strike/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -417,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -456,17 +515,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -871,26 +927,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="47" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47" style="14" customWidth="1"/>
     <col min="4" max="4" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="7" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="65.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="45.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="65.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="60.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{28749369-DA18-43E9-BCBB-C2E3260E45D4}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{50F5370C-8BE3-4F54-8938-F3E7E74F918F}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{6A8E423A-19B1-4A44-8E06-48F91347D283}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{12827C1A-98FA-4247-8B68-C5EBFC3A34D2}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{5F5AAD58-CA31-4CD4-B314-2EEC0BA9F439}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{E9C5F6E7-135E-4719-AF5B-8158EEAA22F4}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{D6B1BF7B-64FA-4D66-A2BC-E0362073CCEB}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{6842A34A-5CD1-4BE4-88C7-542AAAEE08AF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8B4120-391E-4D13-A03B-00D08450C654}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -898,13 +1219,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -916,7 +1237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -924,13 +1245,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -942,21 +1263,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -968,107 +1289,107 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>48</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>66</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1076,183 +1397,14 @@
         <v>37</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="272" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="323" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G22" s="3"/>
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1265,128 +1417,201 @@
     <hyperlink ref="B7" r:id="rId7" xr:uid="{6A84F481-8B5A-4389-9A71-5326690E04E5}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{FC09CDCA-BC25-4CAF-B291-183DEF835D47}"/>
     <hyperlink ref="B8" r:id="rId9" xr:uid="{B3C706C2-5924-476C-8641-4623CF5FA752}"/>
-    <hyperlink ref="B17" r:id="rId10" xr:uid="{28749369-DA18-43E9-BCBB-C2E3260E45D4}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DCA68F-588E-4FFF-B914-9DE9C76E107A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="62.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="60.5" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="62.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="60.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/test_cases.xlsx
+++ b/tests/test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\peleke\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6400E3FF-763E-4CC4-B41F-19F0F60DBCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77064E4-F977-4D01-ACD7-01D9772D54DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47805" yWindow="2490" windowWidth="28800" windowHeight="17835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_cases" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
   <si>
     <t>pdb_id</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -447,13 +447,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -476,11 +469,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -520,9 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -927,263 +914,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="65.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="60.375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.5" style="2"/>
+    <col min="1" max="2" width="14.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="65.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="3"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" s="3"/>
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1194,7 +1158,6 @@
     <hyperlink ref="C5" r:id="rId5" xr:uid="{5F5AAD58-CA31-4CD4-B314-2EEC0BA9F439}"/>
     <hyperlink ref="C6" r:id="rId6" xr:uid="{E9C5F6E7-135E-4719-AF5B-8158EEAA22F4}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{D6B1BF7B-64FA-4D66-A2BC-E0362073CCEB}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{6842A34A-5CD1-4BE4-88C7-542AAAEE08AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1206,203 +1169,213 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="29.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="346.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1426,187 +1399,187 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DCA68F-588E-4FFF-B914-9DE9C76E107A}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="62.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="60.5" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="67.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="70.375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>116</v>
       </c>
     </row>
